--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H2">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I2">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J2">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>2.520877183669323</v>
+        <v>6.483475127930667</v>
       </c>
       <c r="R2">
-        <v>2.520877183669323</v>
+        <v>58.35127615137601</v>
       </c>
       <c r="S2">
-        <v>0.04049427041475801</v>
+        <v>0.03614988046419505</v>
       </c>
       <c r="T2">
-        <v>0.04049427041475801</v>
+        <v>0.03614988046419504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H3">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I3">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J3">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>12.2230060208506</v>
+        <v>29.14819523904889</v>
       </c>
       <c r="R3">
-        <v>12.2230060208506</v>
+        <v>262.33375715144</v>
       </c>
       <c r="S3">
-        <v>0.1963450319182492</v>
+        <v>0.162521449199258</v>
       </c>
       <c r="T3">
-        <v>0.1963450319182492</v>
+        <v>0.162521449199258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H4">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I4">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J4">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>13.5287753876015</v>
+        <v>32.18410485633778</v>
       </c>
       <c r="R4">
-        <v>13.5287753876015</v>
+        <v>289.6569437070401</v>
       </c>
       <c r="S4">
-        <v>0.2173203409015901</v>
+        <v>0.1794487555588216</v>
       </c>
       <c r="T4">
-        <v>0.2173203409015901</v>
+        <v>0.1794487555588216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H5">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I5">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J5">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>11.64854588239644</v>
+        <v>28.67032992902578</v>
       </c>
       <c r="R5">
-        <v>11.64854588239644</v>
+        <v>258.032969361232</v>
       </c>
       <c r="S5">
-        <v>0.1871171550745221</v>
+        <v>0.159857017934472</v>
       </c>
       <c r="T5">
-        <v>0.1871171550745221</v>
+        <v>0.159857017934472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H6">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I6">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J6">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>1.963306703213917</v>
+        <v>5.133236235873778</v>
       </c>
       <c r="R6">
-        <v>1.963306703213917</v>
+        <v>46.19912612286401</v>
       </c>
       <c r="S6">
-        <v>0.03153770166277177</v>
+        <v>0.02862136009775035</v>
       </c>
       <c r="T6">
-        <v>0.03153770166277177</v>
+        <v>0.02862136009775034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H7">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I7">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J7">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>1.225886870575406</v>
+        <v>1.945062146354666</v>
       </c>
       <c r="R7">
-        <v>1.225886870575406</v>
+        <v>17.505559317192</v>
       </c>
       <c r="S7">
-        <v>0.0196921114430197</v>
+        <v>0.01084507346735113</v>
       </c>
       <c r="T7">
-        <v>0.0196921114430197</v>
+        <v>0.01084507346735113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H8">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I8">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J8">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>5.943971684536623</v>
+        <v>8.744546724608886</v>
       </c>
       <c r="R8">
-        <v>5.943971684536623</v>
+        <v>78.70092052147999</v>
       </c>
       <c r="S8">
-        <v>0.09548136588746413</v>
+        <v>0.04875692627343724</v>
       </c>
       <c r="T8">
-        <v>0.09548136588746413</v>
+        <v>0.04875692627343724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H9">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I9">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J9">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>6.578959193277337</v>
+        <v>9.655328791297777</v>
       </c>
       <c r="R9">
-        <v>6.578959193277337</v>
+        <v>86.89795912168</v>
       </c>
       <c r="S9">
-        <v>0.1056815279800546</v>
+        <v>0.05383516937456324</v>
       </c>
       <c r="T9">
-        <v>0.1056815279800546</v>
+        <v>0.05383516937456324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H10">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I10">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J10">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>5.664615297814586</v>
+        <v>8.601185686393777</v>
       </c>
       <c r="R10">
-        <v>5.664615297814586</v>
+        <v>77.41067117754399</v>
       </c>
       <c r="S10">
-        <v>0.09099390686355963</v>
+        <v>0.0479575888359613</v>
       </c>
       <c r="T10">
-        <v>0.09099390686355963</v>
+        <v>0.0479575888359613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1058106666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.317432</v>
+      </c>
+      <c r="I11">
+        <v>0.1699812525402246</v>
+      </c>
+      <c r="J11">
+        <v>0.1699812525402246</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N11">
+        <v>43.662509</v>
+      </c>
+      <c r="O11">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P11">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q11">
+        <v>1.539986395209778</v>
+      </c>
+      <c r="R11">
+        <v>13.859877556888</v>
+      </c>
+      <c r="S11">
+        <v>0.008586494588911675</v>
+      </c>
+      <c r="T11">
+        <v>0.008586494588911673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.126001</v>
+      </c>
+      <c r="I12">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J12">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.382477</v>
+      </c>
+      <c r="N12">
+        <v>55.147431</v>
+      </c>
+      <c r="O12">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P12">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q12">
+        <v>0.7720701614923332</v>
+      </c>
+      <c r="R12">
+        <v>6.948631453431</v>
+      </c>
+      <c r="S12">
+        <v>0.004304827811813899</v>
+      </c>
+      <c r="T12">
+        <v>0.004304827811813899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.126001</v>
+      </c>
+      <c r="I13">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J13">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N13">
+        <v>247.930015</v>
+      </c>
+      <c r="O13">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P13">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q13">
+        <v>3.471047757779444</v>
+      </c>
+      <c r="R13">
+        <v>31.239429820015</v>
+      </c>
+      <c r="S13">
+        <v>0.01935350395479777</v>
+      </c>
+      <c r="T13">
+        <v>0.01935350395479777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.126001</v>
+      </c>
+      <c r="I14">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J14">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N14">
+        <v>273.75299</v>
+      </c>
+      <c r="O14">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P14">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q14">
+        <v>3.832572276998889</v>
+      </c>
+      <c r="R14">
+        <v>34.49315049299</v>
+      </c>
+      <c r="S14">
+        <v>0.021369254443044</v>
+      </c>
+      <c r="T14">
+        <v>0.021369254443044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.126001</v>
+      </c>
+      <c r="I15">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J15">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N15">
+        <v>243.865367</v>
+      </c>
+      <c r="O15">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P15">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q15">
+        <v>3.414142234151889</v>
+      </c>
+      <c r="R15">
+        <v>30.727280107367</v>
+      </c>
+      <c r="S15">
+        <v>0.01903621610587451</v>
+      </c>
+      <c r="T15">
+        <v>0.01903621610587452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.126001</v>
+      </c>
+      <c r="I16">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J16">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N16">
+        <v>43.662509</v>
+      </c>
+      <c r="O16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q16">
+        <v>0.6112799773898889</v>
+      </c>
+      <c r="R16">
+        <v>5.501519796509</v>
+      </c>
+      <c r="S16">
+        <v>0.003408310771117782</v>
+      </c>
+      <c r="T16">
+        <v>0.003408310771117782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.365924</v>
+      </c>
+      <c r="I17">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J17">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.382477</v>
+      </c>
+      <c r="N17">
+        <v>55.147431</v>
+      </c>
+      <c r="O17">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P17">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q17">
+        <v>2.242196504582666</v>
+      </c>
+      <c r="R17">
+        <v>20.179768541244</v>
+      </c>
+      <c r="S17">
+        <v>0.01250180405084237</v>
+      </c>
+      <c r="T17">
+        <v>0.01250180405084237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.072349762077276</v>
-      </c>
-      <c r="H11">
-        <v>0.072349762077276</v>
-      </c>
-      <c r="I11">
-        <v>0.3271855000281089</v>
-      </c>
-      <c r="J11">
-        <v>0.3271855000281089</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="N11">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="O11">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="P11">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="Q11">
-        <v>0.9547438193237813</v>
-      </c>
-      <c r="R11">
-        <v>0.9547438193237813</v>
-      </c>
-      <c r="S11">
-        <v>0.01533658785401087</v>
-      </c>
-      <c r="T11">
-        <v>0.01533658785401087</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.365924</v>
+      </c>
+      <c r="I18">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J18">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N18">
+        <v>247.930015</v>
+      </c>
+      <c r="O18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q18">
+        <v>10.08039364542889</v>
+      </c>
+      <c r="R18">
+        <v>90.72354280885997</v>
+      </c>
+      <c r="S18">
+        <v>0.05620520139646049</v>
+      </c>
+      <c r="T18">
+        <v>0.0562052013964605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.365924</v>
+      </c>
+      <c r="I19">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J19">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N19">
+        <v>273.75299</v>
+      </c>
+      <c r="O19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q19">
+        <v>11.13030990141778</v>
+      </c>
+      <c r="R19">
+        <v>100.17278911276</v>
+      </c>
+      <c r="S19">
+        <v>0.06205921431430252</v>
+      </c>
+      <c r="T19">
+        <v>0.06205921431430252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.365924</v>
+      </c>
+      <c r="I20">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J20">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N20">
+        <v>243.865367</v>
+      </c>
+      <c r="O20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q20">
+        <v>9.915132283789777</v>
+      </c>
+      <c r="R20">
+        <v>89.23619055410799</v>
+      </c>
+      <c r="S20">
+        <v>0.05528375443310787</v>
+      </c>
+      <c r="T20">
+        <v>0.05528375443310788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.365924</v>
+      </c>
+      <c r="I21">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J21">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N21">
+        <v>43.662509</v>
+      </c>
+      <c r="O21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q21">
+        <v>1.775239993701778</v>
+      </c>
+      <c r="R21">
+        <v>15.977159943316</v>
+      </c>
+      <c r="S21">
+        <v>0.009898196923917297</v>
+      </c>
+      <c r="T21">
+        <v>0.009898196923917297</v>
       </c>
     </row>
   </sheetData>
